--- a/Accounts-Schedules/تدريب طلبات 10-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 10-6-2025 تجمع.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$G$14</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>Below is the list of trainees scheduled for training at Talabat on Tuesday, June 10th, from 11 AM to 8 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -212,6 +213,129 @@
   </si>
   <si>
     <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>Mohamed Tarek</t>
+  </si>
+  <si>
+    <t>Belal Gamal</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Abdullah Elsayed</t>
+  </si>
+  <si>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, June 16</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18</t>
+  </si>
+  <si>
+    <t>Thursday, June 19</t>
+  </si>
+  <si>
+    <t>Friday, June 20</t>
+  </si>
+  <si>
+    <t>Saturday, June 21</t>
+  </si>
+  <si>
+    <t>Sunday, June 22</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Abdelrhman khaled darwish</t>
+  </si>
+  <si>
+    <t>5th Settlement</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Eman Adel</t>
+  </si>
+  <si>
+    <t>Mohamed Elbalshy</t>
+  </si>
+  <si>
+    <t>Marina Emad</t>
+  </si>
+  <si>
+    <t>Muhammed Sayed Tahaa</t>
+  </si>
+  <si>
+    <t>Omer Abdo</t>
+  </si>
+  <si>
+    <t>1155655266 / 1032140144</t>
+  </si>
+  <si>
+    <t>Mohamed Sherif</t>
+  </si>
+  <si>
+    <t>Abd AlRahman Mohamed Ashour</t>
+  </si>
+  <si>
+    <t>Omar Ahmed Mohamed Abady</t>
+  </si>
+  <si>
+    <t>Shady Adel</t>
+  </si>
+  <si>
+    <t>Yahia Ahmed Mohamed Teleb</t>
+  </si>
+  <si>
+    <t>Ahmed Elkholy</t>
+  </si>
+  <si>
+    <t>Yaseen Ashraf</t>
+  </si>
+  <si>
+    <t>Mahmoud Zaki</t>
+  </si>
+  <si>
+    <t>Ahmed Rashed</t>
+  </si>
+  <si>
+    <t>Shady Mohamed</t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t>Sherif Elbehairy</t>
+  </si>
+  <si>
+    <t>Mostafa El-Garnosy</t>
+  </si>
+  <si>
+    <t>Mahmoud Metwally</t>
+  </si>
+  <si>
+    <t>Asmaa Ayman</t>
+  </si>
+  <si>
+    <t>Yara Emad</t>
   </si>
 </sst>
 </file>
@@ -226,13 +350,39 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -277,13 +427,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -430,12 +573,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -512,12 +679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -669,6 +830,54 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -837,31 +1046,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,186 +1067,231 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,140 +1622,140 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="24">
         <v>1099700773</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="25">
         <v>1220100184</v>
       </c>
     </row>
     <row r="9" ht="26.75" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="24">
         <v>1003846231</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="25">
         <v>1123940404</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="24">
         <v>1140040830</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="25">
         <v>1118664021</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="24">
         <v>1006491956</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="24">
         <v>1010432422</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="25">
         <v>1023380080</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="24">
         <v>1283403338</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="24">
         <v>1070014549</v>
       </c>
     </row>
@@ -1528,226 +1770,229 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.8181818181818" style="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="25.75" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="24">
         <v>1099700773</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="25">
         <v>1220100184</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="24">
         <v>1003846231</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="25">
         <v>1123940404</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="24">
         <v>1140040830</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="25">
         <v>1118664021</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="16.25" spans="1:5">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="24">
         <v>1006491956</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="24">
         <v>1010432422</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="50.75" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="25">
         <v>1023380080</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="24">
         <v>1283403338</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="24">
         <v>1070014549</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1761,10 +2006,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A3:G8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1785,339 +2030,451 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>1220100184</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="13">
         <v>1123940404</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <v>1010432422</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="13">
         <v>1070014549</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>1140040830</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="13">
         <v>1099700773</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>1003846231</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="13">
         <v>1118664021</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="13">
         <v>1006491956</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="13">
         <v>1023380080</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="13">
         <v>1283403338</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="16">
+        <v>10267962</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="16">
+        <v>10273571</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="16">
+        <v>10273655</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="16">
+        <v>10287526</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="C21" s="16">
+        <v>10334426</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="16">
+        <v>10334497</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>10334495</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>10273655</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>1220100184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>10287526</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>10334497</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27">
+        <v>1123940404</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>10334495</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>1140040830</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G14" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:G14">
+    <sortState ref="A2:G14">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>
@@ -2128,4 +2485,1723 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="22.9090909090909" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.2727272727273" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="10" customWidth="1"/>
+    <col min="13" max="16" width="6.90909090909091" customWidth="1"/>
+    <col min="17" max="18" width="9.54545454545454" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6">
+        <v>10333951</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1063853315</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="6">
+        <v>10334018</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1004065451</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6">
+        <v>10334020</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1128562064</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6">
+        <v>10334023</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1278825213</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6">
+        <v>10334032</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1062098602</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6">
+        <v>10333953</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="6">
+        <v>10333976</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1021824170</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="6">
+        <v>10333964</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1115055059</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="6">
+        <v>10333956</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1021661613</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="6">
+        <v>10333952</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1015843833</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="6">
+        <v>10333947</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1117915599</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6">
+        <v>10334025</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1143344843</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6">
+        <v>10333965</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1068338443</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6">
+        <v>10333966</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1027486316</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6">
+        <v>10333942</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1093161776</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="6">
+        <v>10333938</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1000663107</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="6">
+        <v>10334027</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1158249339</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="6">
+        <v>10334031</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1068068182</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="6">
+        <v>10333974</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1065353669</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="6">
+        <v>10333973</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1065673340</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6">
+        <v>10334057</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1064620013</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6">
+        <v>10267962</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1018145481</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="6">
+        <v>10273571</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1154947311</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="6">
+        <v>10250874</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1142664771</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="6">
+        <v>10273655</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1220100184</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="6">
+        <v>10287526</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="6">
+        <v>10334426</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1070014549</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="6">
+        <v>10334497</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1123940404</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="6">
+        <v>10334495</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1140040830</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>10267962</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>10273571</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>10334426</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Accounts-Schedules/تدريب طلبات 10-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 10-6-2025 تجمع.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>Below is the list of trainees scheduled for training at Talabat on Tuesday, June 10th, from 11 AM to 8 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -1346,6 +1346,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2490,10 +2502,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B35"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2507,7 +2519,7 @@
     <col min="17" max="18" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -4103,30 +4115,6 @@
       </c>
       <c r="R31" s="7">
         <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>10267962</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>10273571</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>10334426</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4201,6 +4189,9 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A33 A60:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
